--- a/LotteryPredict/Data/LotteryPredict.xlsx
+++ b/LotteryPredict/Data/LotteryPredict.xlsx
@@ -1,35 +1,185 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <r>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>ed1</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>ed2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>ed3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>ed4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>ed5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>ed6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>lue</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
   <si>
     <t>date</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -40,349 +190,31 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="9"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -390,307 +222,87 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -702,7 +314,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="C7EDCC"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -978,40 +590,39 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G1">
-        <v>10</v>
-      </c>
-      <c r="H1" t="s">
-        <v>0</v>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1353,7 +964,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>